--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6760,7 +6761,6 @@
           <t>宝盈祥瑞养老混合C</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>29.79</t>
@@ -6776,6 +6776,2872 @@
       </c>
       <c r="H85" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.5740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5367</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3839</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008672</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001686</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008673</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈祥泽混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>57.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001687</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>37.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>37.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9647,4 +9648,3934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0248</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005371</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005372</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中加心悦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13578,4 +13579,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13587,7 +13588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13598,17 +13599,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13618,14 +13639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.06</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -13634,14 +13677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>74</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.93</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13650,14 +13715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.91</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -13666,13 +13753,4255 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7439</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6286</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5292</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3143</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>47.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002384</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰鸿祥服务升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>32.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17900,7 +17901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17911,17 +17912,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17931,14 +17952,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.15</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17947,14 +17990,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.06</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -17963,14 +18028,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.93</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17979,14 +18066,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>84</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48.91</v>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -17995,13 +18104,7649 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5795</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0751</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9505</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8851</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5714</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5580</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3860</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3348</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1896</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1753</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1642</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1034</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0782</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8724</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7692</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7490</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7411</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7327</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6453</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6265</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4984</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>49.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003641</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>54.77</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003642</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>54.77</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>55.41</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000512</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>002063</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>国泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>32.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25629,7 +25630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25640,17 +25641,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25660,14 +25681,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>202</v>
-      </c>
-      <c r="D2" t="n">
-        <v>71.98</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9332</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -25676,14 +25719,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>112</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.15</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -25692,14 +25757,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>102</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.06</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -25708,14 +25795,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>74</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.93</v>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4978</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -25724,14 +25833,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>84</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48.91</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -25740,13 +25871,7131 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1877</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9983</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8890</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8592</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4956</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007470</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003641</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>53.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003642</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>53.57</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>38.86</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002728</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>38.86</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002729</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>202</v>
+      </c>
+      <c r="D3" t="n">
+        <v>71.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>102</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>80</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>32.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
+++ b/数据整理/stocks/A股/上证主板/601088-中国神华.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
-        <v>49.19</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D3" t="n">
-        <v>71.98</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="D4" t="n">
-        <v>34.15</v>
+        <v>71.98</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
-        <v>30.06</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>38.93</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>48.91</v>
+        <v>38.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>80</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>32.87</v>
       </c>
     </row>
@@ -600,6 +617,8222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H216"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5611</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3937</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3476</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7310</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6542</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5578</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3799</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3693</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006158</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信银利精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003642</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>52.36</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银河定投宝腾讯济安指数</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007671</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银新增利混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>44.46</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>515570</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>山西证券中证红利潜力ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009073</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>德邦惠利混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013983</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>72.85</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>工银成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>510090</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>建信上证社会责任ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>工银成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>012158</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富上证50基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006159</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>博时荣享回报灵活配置定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>009074</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>德邦惠利混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>50.27</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012157</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>汇添富上证50基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>007672</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>建信中证红利潜力指数C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>001604</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>浙商汇金转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>013984</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>003641</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>长盛盛丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7831,7 +16064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15559,7 +23792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19871,7 +28104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23801,7 +32034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26667,7 +34900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29908,7 +38141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
